--- a/data/zhujia.xlsx
+++ b/data/zhujia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\lifujisuanqi\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\个人文件夹\作业\MI 439\mi349_final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5263AD-6C49-4783-A17E-41CB163B7F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55343EDC-1005-4005-B027-A8DC49F85392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2640" windowWidth="28800" windowHeight="15435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>[1] 制作委托：库存用的铜铸锭（铸甲匠）</t>
   </si>
@@ -840,23 +840,26 @@
   </si>
   <si>
     <t>球粒陨石制敌上装</t>
+  </si>
+  <si>
+    <t>旧萨雷安</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1170,9 +1173,9 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1291,7 +1294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1716,7 +1719,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1801,7 +1804,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -1954,7 +1957,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2107,7 +2110,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -2124,7 +2127,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -2175,7 +2178,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -2206,9 +2209,9 @@
       <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>132</v>
       </c>
@@ -2259,7 +2262,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -2276,7 +2279,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -2310,7 +2313,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -2395,7 +2398,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>152</v>
       </c>
@@ -2478,9 +2481,9 @@
       <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -2497,7 +2500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>160</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>162</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -2684,7 +2687,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>182</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>186</v>
       </c>
@@ -2749,9 +2752,9 @@
       <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>188</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>193</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>195</v>
       </c>
@@ -2819,7 +2822,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>197</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>205</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -2921,7 +2924,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>209</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>211</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>213</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>217</v>
       </c>
@@ -3020,9 +3023,9 @@
       <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>224</v>
       </c>
@@ -3073,7 +3076,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>226</v>
       </c>
@@ -3090,7 +3093,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>228</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>230</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>232</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>238</v>
       </c>
@@ -3192,7 +3195,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>240</v>
       </c>
@@ -3209,7 +3212,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>242</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>244</v>
       </c>
@@ -3243,7 +3246,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>246</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>248</v>
       </c>
@@ -3288,15 +3291,18 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>250</v>
       </c>
+      <c r="B1" t="s">
+        <v>270</v>
+      </c>
       <c r="C1">
         <v>724620</v>
       </c>
@@ -3307,10 +3313,13 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>252</v>
       </c>
+      <c r="B2" t="s">
+        <v>270</v>
+      </c>
       <c r="C2">
         <v>935000</v>
       </c>
@@ -3321,10 +3330,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>254</v>
       </c>
+      <c r="B3" t="s">
+        <v>270</v>
+      </c>
       <c r="C3">
         <v>1051810</v>
       </c>
@@ -3335,10 +3347,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>256</v>
       </c>
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
       <c r="C4">
         <v>1582910</v>
       </c>
@@ -3349,10 +3364,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>258</v>
       </c>
+      <c r="B5" t="s">
+        <v>270</v>
+      </c>
       <c r="C5">
         <v>933280</v>
       </c>
@@ -3363,10 +3381,13 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>260</v>
       </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
       <c r="C6">
         <v>1255600</v>
       </c>
@@ -3377,10 +3398,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>262</v>
       </c>
+      <c r="B7" t="s">
+        <v>270</v>
+      </c>
       <c r="C7">
         <v>1503270</v>
       </c>
@@ -3391,10 +3415,13 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>264</v>
       </c>
+      <c r="B8" t="s">
+        <v>270</v>
+      </c>
       <c r="C8">
         <v>1443780</v>
       </c>
@@ -3405,10 +3432,13 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>266</v>
       </c>
+      <c r="B9" t="s">
+        <v>270</v>
+      </c>
       <c r="C9">
         <v>1703250</v>
       </c>
@@ -3419,9 +3449,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>268</v>
+      </c>
+      <c r="B10" t="s">
+        <v>270</v>
       </c>
       <c r="C10">
         <v>2257300</v>
